--- a/model/params.xlsx
+++ b/model/params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiyeong/HUFS.CSE.DE-fake-it/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C930DD1E-B258-3F4A-A608-542CED6EA9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F1A748-DD22-3A4E-8F09-EA9AD53DB97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1700" yWindow="820" windowWidth="28300" windowHeight="17440" xr2:uid="{A23B8A05-411A-AB46-81D7-866ED736785E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>use_input1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,21 +54,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>checkpoint_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkpoint_2</t>
-  </si>
-  <si>
-    <t>checkpoint_3</t>
+    <t>selected_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>resnext50_32x4d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>selected_model</t>
+    <t>checkpoint_82222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF7BE86-6ED4-8148-9DBD-89F827125D1F}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -449,7 +443,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -466,7 +460,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -475,44 +469,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
